--- a/biology/Zoologie/Anhinga_roux/Anhinga_roux.xlsx
+++ b/biology/Zoologie/Anhinga_roux/Anhinga_roux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anhinga melanogaster
-L‘Anhinga roux (Anhinga melanogaster ), parfois appelé Oiseau-serpent[1], est une espèce d'oiseau aquatique de l'Asie du Sud et du Sud-Est, répandu du Népal jusqu'à l'île de Timor. 
+L‘Anhinga roux (Anhinga melanogaster ), parfois appelé Oiseau-serpent, est une espèce d'oiseau aquatique de l'Asie du Sud et du Sud-Est, répandu du Népal jusqu'à l'île de Timor. 
 Piscivore, un peu semblable à un cormoran, il s'en distingue par son très long cou. On le voit souvent nager avec seulement la tête hors de l'eau.
 Il pond entre 3 et 6 œufs dans un nid de brindilles construit dans un arbre.
 </t>
@@ -514,7 +526,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Membre de la famille des Anhingidae, l'Anhinga roux est étroitement apparenté à l'Anhinga d'Amérique (Anhinga anhinga) dont il se distingue par les plumes blanches sur les côtés de son cou, à l'Anhinga d'Afrique (Anhinga rufa) et à l'Anhinga d'Australie (Anhinga novaehollandiae).
 </t>
@@ -545,7 +559,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, 4 sous-espèces ont été décrites :
 Anhinga melanogaster melanogaster Pennant 1769
@@ -579,7 +595,9 @@
           <t>Photos</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Parc national de Keoladeo, Inde
